--- a/medicine/Pharmacie/Polycétide/Polycétide.xlsx
+++ b/medicine/Pharmacie/Polycétide/Polycétide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polyc%C3%A9tide</t>
+          <t>Polycétide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les polycétides[1]
-sont un groupe de métabolites secondaires de bactéries, champignons, végétaux et animaux qui proviennent de la condensation itérative de sous-unités acétyle ou malonyle par des enzymes spécialisées, les polycétide synthases (PKS). Ils contiennent une alternance de groupes carbonyle et méthylène (-C(=O)-CH2-), ou sont dérivés de précurseurs contenant une telle alternance[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les polycétides
+sont un groupe de métabolites secondaires de bactéries, champignons, végétaux et animaux qui proviennent de la condensation itérative de sous-unités acétyle ou malonyle par des enzymes spécialisées, les polycétide synthases (PKS). Ils contiennent une alternance de groupes carbonyle et méthylène (-C(=O)-CH2-), ou sont dérivés de précurseurs contenant une telle alternance. 
 	Polycétides
 			Geldanamycine (antibiotique)
 			Doxycycline (antibiotique)
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Polyc%C3%A9tide</t>
+          <t>Polycétide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,7 +531,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Macrolides
 Picromycine, le premier macrolide à avoir été isolé (1951).
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Polyc%C3%A9tide</t>
+          <t>Polycétide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,7 +572,9 @@
           <t>Synthèse biologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La biosynthèse des polycétides offre beaucoup de ressemblance avec celle des acides gras.
 </t>
